--- a/doc/状態遷移.xlsx
+++ b/doc/状態遷移.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c838909bf0ff4153/作業/20241030 JavaScript勉強/calc/Calcurator-with-State-Transition/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="291" documentId="11_AD4D066CA252ABDACC1048B06996F6F872EEDF4A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24DEEB89-4943-425E-B080-8229CD6CD633}"/>
+  <xr:revisionPtr revIDLastSave="305" documentId="11_AD4D066CA252ABDACC1048B06996F6F872EEDF4A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C45C8857-061E-4400-8E04-573927AF3319}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>状態</t>
     <rPh sb="0" eb="2">
@@ -495,6 +495,37 @@
   </si>
   <si>
     <t>状態99：計算エラー時中</t>
+  </si>
+  <si>
+    <t>入力バッファを空に
+入力バッファにキー入力追加
+電卓表示部更新
+状態１に遷移</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>ニュウリョクツイカ</t>
+    </rPh>
+    <rPh sb="24" eb="29">
+      <t>デンタクヒョウジブ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -552,7 +583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -565,14 +596,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2871,116 +2909,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5" t="s">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="96" customHeight="1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="93.75">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="75">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="168.75">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="1:5" s="10" customFormat="1" ht="168.75">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="56.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="1:5" s="10" customFormat="1" ht="75">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="56.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>22</v>
       </c>
     </row>

--- a/doc/状態遷移.xlsx
+++ b/doc/状態遷移.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c838909bf0ff4153/作業/20241030 JavaScript勉強/calc/Calcurator-with-State-Transition/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="305" documentId="11_AD4D066CA252ABDACC1048B06996F6F872EEDF4A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C45C8857-061E-4400-8E04-573927AF3319}"/>
+  <xr:revisionPtr revIDLastSave="350" documentId="11_AD4D066CA252ABDACC1048B06996F6F872EEDF4A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FE81B6B-9477-4B7E-9921-630824AE8911}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>状態</t>
     <rPh sb="0" eb="2">
@@ -524,6 +524,85 @@
     </rPh>
     <rPh sb="36" eb="38">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力バッファのデータを数値化し第２項として保存
+計算：［第１項］［記憶している演算］［第２項］
+　　　ここで計算エラー発生なら　
+　　　　　入力バッファを空に
+　　　　　電卓表示部をエラー表示に更新　　　　　
+　　　　　状態９９に遷移
+入力バッファを計算結果に更新
+電卓表示部更新
+入力バッファのデータを数値化し第１項として保存
+演算種類記憶
+入力バッファを空に
+電卓表示部更新しない
+状態２に遷移</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>スウチカ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>デンタク</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>コウシン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -548,12 +627,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -583,7 +668,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -604,13 +689,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1967,14 +2051,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>426982</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>126125</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>88025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>440120</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>78827</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>40727</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1989,8 +2073,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="6575534" y="3108435"/>
-          <a:ext cx="2745827" cy="425668"/>
+          <a:off x="6599182" y="4517150"/>
+          <a:ext cx="2756338" cy="428952"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2092,14 +2176,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>31174</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>218139</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180039</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>182261</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>2627</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>202652</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2114,8 +2198,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7607212" y="3258812"/>
-          <a:ext cx="839818" cy="268065"/>
+          <a:off x="7574974" y="4609164"/>
+          <a:ext cx="836887" cy="260738"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2164,14 +2248,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>446688</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>446689</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>67003</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28903</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2186,8 +2270,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3862550" y="3569576"/>
-          <a:ext cx="5465380" cy="425668"/>
+          <a:off x="3875688" y="4981575"/>
+          <a:ext cx="5486401" cy="428953"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2289,14 +2373,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>254976</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>133197</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95097</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>169580</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>179182</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>141082</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2311,8 +2395,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6453553" y="4141024"/>
-          <a:ext cx="603335" cy="287773"/>
+          <a:off x="6427176" y="5476722"/>
+          <a:ext cx="600404" cy="284110"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2355,14 +2439,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>424963</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>8692</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>208717</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>426225</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>203183</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>165083</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2377,8 +2461,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2491155" y="4258307"/>
-          <a:ext cx="6888570" cy="436280"/>
+          <a:off x="2482363" y="5590342"/>
+          <a:ext cx="6859262" cy="432616"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2552,14 +2636,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>676450</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>73874</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>35774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>144363</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>100149</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>62049</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2574,8 +2658,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5497565" y="4807066"/>
-          <a:ext cx="845375" cy="268064"/>
+          <a:off x="5477050" y="6131774"/>
+          <a:ext cx="839513" cy="264400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2615,6 +2699,198 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>412860</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190827</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>360309</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="フリーフォーム: 図形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5EF3B31-D3AA-4E5B-944F-AD0F94BE3DEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5213460" y="3191202"/>
+          <a:ext cx="1319049" cy="352097"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 1432035 w 1432035"/>
+            <a:gd name="connsiteY0" fmla="*/ 446740 h 446740"/>
+            <a:gd name="connsiteX1" fmla="*/ 1294087 w 1432035"/>
+            <a:gd name="connsiteY1" fmla="*/ 151137 h 446740"/>
+            <a:gd name="connsiteX2" fmla="*/ 742294 w 1432035"/>
+            <a:gd name="connsiteY2" fmla="*/ 50 h 446740"/>
+            <a:gd name="connsiteX3" fmla="*/ 157656 w 1432035"/>
+            <a:gd name="connsiteY3" fmla="*/ 137999 h 446740"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 1432035"/>
+            <a:gd name="connsiteY4" fmla="*/ 427033 h 446740"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="1432035" h="446740">
+              <a:moveTo>
+                <a:pt x="1432035" y="446740"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="1420539" y="336162"/>
+                <a:pt x="1409044" y="225585"/>
+                <a:pt x="1294087" y="151137"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1179130" y="76689"/>
+                <a:pt x="931699" y="2240"/>
+                <a:pt x="742294" y="50"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="552889" y="-2140"/>
+                <a:pt x="281372" y="66835"/>
+                <a:pt x="157656" y="137999"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="33940" y="209163"/>
+                <a:pt x="16970" y="318098"/>
+                <a:pt x="0" y="427033"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>40726</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>205280</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE601189-9C3A-4872-A0A7-FC367C49D05B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="3676650"/>
+          <a:ext cx="726526" cy="243380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>演算キー</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2895,8 +3171,8 @@
   </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2977,33 +3253,33 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="10" customFormat="1" ht="168.75">
+    <row r="6" spans="1:5" ht="262.5">
       <c r="A6" s="7"/>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="75">
+      <c r="A7" s="7"/>
+      <c r="B7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="10" customFormat="1" ht="75">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3051,7 +3327,7 @@
   </sheetPr>
   <dimension ref="B2:P15"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
@@ -3092,7 +3368,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="4"/>
-      <c r="J7" s="3">
+      <c r="J7" s="9">
         <v>3</v>
       </c>
       <c r="K7" s="4"/>

--- a/doc/状態遷移.xlsx
+++ b/doc/状態遷移.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c838909bf0ff4153/作業/20241030 JavaScript勉強/calc/Calcurator-with-State-Transition/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="350" documentId="11_AD4D066CA252ABDACC1048B06996F6F872EEDF4A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FE81B6B-9477-4B7E-9921-630824AE8911}"/>
+  <xr:revisionPtr revIDLastSave="354" documentId="11_AD4D066CA252ABDACC1048B06996F6F872EEDF4A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C283A4B9-BAE2-426E-9DE7-0F1B52A4B8D7}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表" sheetId="1" r:id="rId1"/>
@@ -668,7 +668,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -686,14 +686,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3171,8 +3174,8 @@
   </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3185,17 +3188,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
       <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
@@ -3207,7 +3210,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="96" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -3224,7 +3227,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="93.75">
-      <c r="A4" s="7"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
@@ -3239,7 +3242,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="75">
-      <c r="A5" s="7"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
@@ -3249,19 +3252,19 @@
       <c r="D5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="262.5">
-      <c r="A6" s="7"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -3269,32 +3272,32 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="75">
-      <c r="A7" s="7"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="56.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3327,7 +3330,7 @@
   </sheetPr>
   <dimension ref="B2:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
@@ -3368,7 +3371,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="4"/>
-      <c r="J7" s="9">
+      <c r="J7" s="3">
         <v>3</v>
       </c>
       <c r="K7" s="4"/>

--- a/doc/状態遷移.xlsx
+++ b/doc/状態遷移.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c838909bf0ff4153/作業/20241030 JavaScript勉強/calc/Calcurator-with-State-Transition/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="354" documentId="11_AD4D066CA252ABDACC1048B06996F6F872EEDF4A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C283A4B9-BAE2-426E-9DE7-0F1B52A4B8D7}"/>
+  <xr:revisionPtr revIDLastSave="366" documentId="11_AD4D066CA252ABDACC1048B06996F6F872EEDF4A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EDA4C68-E8BC-4C13-B63A-5BDB888A08BA}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>状態</t>
     <rPh sb="0" eb="2">
@@ -603,6 +603,70 @@
     </rPh>
     <rPh sb="138" eb="140">
       <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反転キー押下</t>
+    <rPh sb="0" eb="2">
+      <t>ハンテン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力バッファの先頭の符号反転
+電卓表示部更新
+状態１のまま</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>フゴウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハンテン</t>
+    </rPh>
+    <rPh sb="15" eb="20">
+      <t>デンタクヒョウジブ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力バッファの先頭の符号反転
+電卓表示部更新
+状態３のまま</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>フゴウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハンテン</t>
+    </rPh>
+    <rPh sb="15" eb="20">
+      <t>デンタクヒョウジブ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジョウタイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -641,7 +705,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -662,6 +726,17 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -689,14 +764,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3172,10 +3247,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3185,20 +3260,21 @@
     <col min="3" max="3" width="64" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
     <col min="5" max="5" width="50.375" customWidth="1"/>
+    <col min="6" max="6" width="39.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
+    <row r="2" spans="1:6">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
@@ -3208,9 +3284,12 @@
       <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="F2" s="9" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="96" customHeight="1">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:6" ht="96" customHeight="1">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -3225,9 +3304,12 @@
       <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="F3" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" ht="93.75">
-      <c r="A4" s="8"/>
+    <row r="4" spans="1:6" ht="93.75">
+      <c r="A4" s="10"/>
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
@@ -3240,9 +3322,12 @@
       <c r="E4" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="F4" s="6" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" ht="75">
-      <c r="A5" s="8"/>
+    <row r="5" spans="1:6" ht="75">
+      <c r="A5" s="10"/>
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
@@ -3255,24 +3340,30 @@
       <c r="E5" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="F5" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" ht="262.5">
-      <c r="A6" s="8"/>
+    <row r="6" spans="1:6" ht="262.5">
+      <c r="A6" s="10"/>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="F6" s="6" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" ht="75">
-      <c r="A7" s="8"/>
+    <row r="7" spans="1:6" ht="75">
+      <c r="A7" s="10"/>
       <c r="B7" s="5" t="s">
         <v>20</v>
       </c>
@@ -3285,28 +3376,34 @@
       <c r="E7" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="F7" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" ht="56.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="10" t="s">
+    <row r="8" spans="1:6" ht="56.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>22</v>
       </c>
+      <c r="F8" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="C10" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="56.25">
+    <row r="11" spans="1:6" ht="56.25">
       <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
@@ -3330,7 +3427,9 @@
   </sheetPr>
   <dimension ref="B2:P15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>

--- a/doc/状態遷移.xlsx
+++ b/doc/状態遷移.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c838909bf0ff4153/作業/20241030 JavaScript勉強/calc/Calcurator-with-State-Transition/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="366" documentId="11_AD4D066CA252ABDACC1048B06996F6F872EEDF4A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EDA4C68-E8BC-4C13-B63A-5BDB888A08BA}"/>
+  <xr:revisionPtr revIDLastSave="372" documentId="11_AD4D066CA252ABDACC1048B06996F6F872EEDF4A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34D843F6-5BC0-4BC3-A3CE-A14D8D6676D8}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表" sheetId="1" r:id="rId1"/>
@@ -110,36 +110,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>入力バッファを空に
-電卓表示部更新しない
-状態０に遷移</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ソラ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>デンタク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ブ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>入力バッファのデータを数値化し第１項として保存
 演算種類記憶
 入力バッファを空に
@@ -667,6 +637,29 @@
     </rPh>
     <rPh sb="23" eb="25">
       <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電卓表示部更新しない
+状態４に遷移</t>
+    <rPh sb="0" eb="2">
+      <t>デンタク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -691,7 +684,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -701,6 +694,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,7 +742,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -769,6 +768,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3249,8 +3251,8 @@
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3264,17 +3266,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10" t="s">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
@@ -3285,11 +3287,11 @@
         <v>3</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="96" customHeight="1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -3299,91 +3301,91 @@
         <v>9</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="93.75">
-      <c r="A4" s="10"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="E4" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="F4" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="75">
-      <c r="A5" s="10"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="F5" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="262.5">
-      <c r="A6" s="10"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="93.75">
+      <c r="A7" s="11"/>
+      <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="75">
-      <c r="A7" s="10"/>
-      <c r="B7" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="C7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>16</v>
+        <v>35</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="56.25">
-      <c r="A8" s="10"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>9</v>
@@ -3392,20 +3394,20 @@
         <v>10</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="56.25">
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -3435,27 +3437,27 @@
   <sheetData>
     <row r="2" spans="2:16">
       <c r="P2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="2:16">
       <c r="P3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:16">
       <c r="P4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:16">
       <c r="P5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="48.75" customHeight="1">
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="3">
@@ -3483,37 +3485,37 @@
     </row>
     <row r="9" spans="2:16">
       <c r="P9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="2:16">
       <c r="P10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="2:16">
       <c r="P11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="2:16">
       <c r="P12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="2:16">
       <c r="P13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="2:16">
       <c r="P14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="2:16">
       <c r="P15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/doc/状態遷移.xlsx
+++ b/doc/状態遷移.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c838909bf0ff4153/作業/20241030 JavaScript勉強/calc/Calcurator-with-State-Transition/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="372" documentId="11_AD4D066CA252ABDACC1048B06996F6F872EEDF4A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34D843F6-5BC0-4BC3-A3CE-A14D8D6676D8}"/>
+  <xr:revisionPtr revIDLastSave="375" documentId="11_AD4D066CA252ABDACC1048B06996F6F872EEDF4A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C13C7490-8E31-49AF-A7BE-A68FCE094D96}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -424,13 +424,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>演算キー：「＋」「ー」「×」「÷」</t>
-    <rPh sb="0" eb="2">
-      <t>エンザン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>イコールキー：「＝」</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -660,6 +653,13 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>演算キー：「＋」「ー」「×」「÷」「％」</t>
+    <rPh sb="0" eb="2">
+      <t>エンザン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -684,7 +684,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -694,12 +694,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,11 +763,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3252,7 +3246,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3266,17 +3260,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
@@ -3287,11 +3281,11 @@
         <v>3</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="96" customHeight="1">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -3311,7 +3305,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="93.75">
-      <c r="A4" s="11"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
@@ -3321,15 +3315,15 @@
       <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>40</v>
+      <c r="E4" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="75">
-      <c r="A5" s="11"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
@@ -3347,7 +3341,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="262.5">
-      <c r="A6" s="11"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
@@ -3355,24 +3349,24 @@
         <v>17</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="93.75">
-      <c r="A7" s="11"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -3383,7 +3377,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="56.25">
-      <c r="A8" s="11"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="8" t="s">
         <v>20</v>
       </c>
@@ -3430,7 +3424,7 @@
   <dimension ref="B2:P15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3442,17 +3436,17 @@
     </row>
     <row r="3" spans="2:16">
       <c r="P3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="2:16">
       <c r="P4" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="2:16">
       <c r="P5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="48.75" customHeight="1">
@@ -3485,37 +3479,37 @@
     </row>
     <row r="9" spans="2:16">
       <c r="P9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="2:16">
       <c r="P10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="2:16">
       <c r="P11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="2:16">
       <c r="P12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="2:16">
       <c r="P13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="2:16">
       <c r="P14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="2:16">
       <c r="P15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
